--- a/exam_seating_planner/Exam_Seat_planner/Paramount School/2024-04-26/Seat_Plan_Paramount School_Paramount School Hall_Afternoon_2024-04-26.xlsx
+++ b/exam_seating_planner/Exam_Seat_planner/Paramount School/2024-04-26/Seat_Plan_Paramount School_Paramount School Hall_Afternoon_2024-04-26.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:C27"/>
+  <dimension ref="A5:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -540,11 +540,6 @@
         <v>5396</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>5399</v>
-      </c>
-    </row>
     <row r="24">
       <c r="A24" s="3" t="n">
         <v>5400</v>
@@ -558,11 +553,6 @@
     <row r="26">
       <c r="A26" s="3" t="n">
         <v>5402</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>5403</v>
       </c>
     </row>
   </sheetData>
